--- a/cea/databases/SG/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/SG/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimenofonseca/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4023B42-F0DC-4C44-B747-7EF42279C97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="19610" tabRatio="785"/>
+    <workbookView xWindow="12120" yWindow="-21140" windowWidth="19920" windowHeight="20780" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -17,10 +18,18 @@
     <sheet name="HVAC_ASSEMBLIES" sheetId="1" r:id="rId3"/>
     <sheet name="SUPPLY_ASSEMBLIES" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
   <si>
     <t>type_hs</t>
   </si>
@@ -116,12 +125,6 @@
     <t>Hs_bg</t>
   </si>
   <si>
-    <t>Concrete and Masonry with outdoor  corridors</t>
-  </si>
-  <si>
-    <t>Concrete and Masonry with indoor  corridors</t>
-  </si>
-  <si>
     <t xml:space="preserve">Concrete, Masonry and Rainscreens </t>
   </si>
   <si>
@@ -203,9 +206,6 @@
     <t>WALL_AS7</t>
   </si>
   <si>
-    <t>SHADING_AS0</t>
-  </si>
-  <si>
     <t>type_floor</t>
   </si>
   <si>
@@ -221,20 +221,35 @@
     <t>type_part</t>
   </si>
   <si>
-    <t>WALL_AS3</t>
-  </si>
-  <si>
     <t>WALL_AS6</t>
+  </si>
+  <si>
+    <t>STANDARD4</t>
+  </si>
+  <si>
+    <t>STANDARD5</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry with outdoor corridors and void deck</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry with indoor corridors and void deck</t>
+  </si>
+  <si>
+    <t>WALL_AS10</t>
+  </si>
+  <si>
+    <t>SHADING_AS1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +380,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1092,74 +1113,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="B2" s="9" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C2" s="12">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="12">
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C3" s="12">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="12">
         <v>2040</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="12">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="12">
         <v>2040</v>
       </c>
     </row>
@@ -1169,34 +1218,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.26953125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.1796875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="10.81640625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="1"/>
+    <col min="5" max="7" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.1640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="3" customWidth="1"/>
+    <col min="16" max="19" width="10.83203125" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -1211,16 +1260,16 @@
         <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>4</v>
@@ -1253,36 +1302,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2">
         <v>0.9</v>
@@ -1313,36 +1362,36 @@
       </c>
       <c r="U2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K3" s="2">
         <v>0.9</v>
@@ -1373,36 +1422,36 @@
       </c>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2">
         <v>0.9</v>
@@ -1432,38 +1481,157 @@
         <v>0.59</v>
       </c>
     </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.59</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1048560"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1493,24 +1661,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>20</v>
@@ -1525,24 +1693,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>20</v>
@@ -1557,24 +1725,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>20</v>
@@ -1589,7 +1757,71 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1048560" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1048560" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E1048560" s="2"/>
     </row>
   </sheetData>
@@ -1599,25 +1831,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E1048559"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1632,58 +1864,92 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="1048559" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1048559" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E1048559" s="2"/>
     </row>
   </sheetData>

--- a/cea/databases/SG/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/SG/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimenofonseca/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\newCityEnergyAnalyst\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4023B42-F0DC-4C44-B747-7EF42279C97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2913739-B2F2-43FC-9B79-F8792E870ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="-21140" windowWidth="19920" windowHeight="20780" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -1120,15 +1120,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -1222,28 +1222,28 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.1640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="3" customWidth="1"/>
-    <col min="16" max="19" width="10.83203125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="7" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="3" customWidth="1"/>
+    <col min="16" max="19" width="10.85546875" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
         <v>0.28999999999999998</v>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="U2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
         <v>0.28999999999999998</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>62</v>
       </c>
@@ -1614,22 +1614,22 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>62</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1048560" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="1048560" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048560" s="2"/>
     </row>
   </sheetData>
@@ -1838,16 +1838,16 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>62</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1048559" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="1048559" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048559" s="2"/>
     </row>
   </sheetData>
